--- a/data/trans_orig/IP1010-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1010-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C77C4334-1221-4176-8D3E-0E72C1FFFB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC762E54-F29A-4A69-8B6D-84EA0E1AC9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22928BEF-6A37-4177-8FC0-D609A264AEDC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8BE91E1-BD9B-452D-B1BB-EA548D5C00C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="151">
   <si>
     <t>Menores según si padecen trastornos mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -103,13 +103,13 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>4,65%</t>
+    <t>6,13%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>4,31%</t>
   </si>
   <si>
     <t>1,12%</t>
@@ -118,25 +118,25 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,07%</t>
+    <t>2,98%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>95,35%</t>
+    <t>93,87%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>96,42%</t>
+    <t>95,69%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>96,93%</t>
+    <t>97,02%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -151,25 +151,28 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,08%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>98,75%</t>
+    <t>98,73%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -178,13 +181,16 @@
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,17%</t>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,92%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -193,7 +199,7 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>3,0%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -202,13 +208,13 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,4%</t>
+    <t>1,18%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>96,95%</t>
+    <t>97,0%</t>
   </si>
   <si>
     <t>99,25%</t>
@@ -217,235 +223,223 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,6%</t>
+    <t>98,82%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>99,03%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -454,31 +448,25 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>2,22%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>97,78%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>98,86%</t>
+    <t>98,63%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -487,16 +475,7 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -505,22 +484,13 @@
     <t>99,32%</t>
   </si>
   <si>
-    <t>98,68%</t>
+    <t>98,65%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
     <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
   </si>
 </sst>
 </file>
@@ -932,7 +902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B3FCCC-402F-4CD2-8D70-90F9BBD23E2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDD7D1F-4CE4-421B-918A-B07FB4A5B40E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1396,7 +1366,7 @@
         <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,13 +1381,13 @@
         <v>474951</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>627</v>
@@ -1426,10 +1396,10 @@
         <v>415482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -1441,13 +1411,13 @@
         <v>890433</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,7 +1473,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1515,13 +1485,13 @@
         <v>1275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1536,7 +1506,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1545,13 +1515,13 @@
         <v>1275</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,10 +1536,10 @@
         <v>156863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -1584,7 +1554,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -1596,10 +1566,10 @@
         <v>330930</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -1670,13 +1640,13 @@
         <v>4658</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1685,13 +1655,13 @@
         <v>1247</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1700,13 +1670,13 @@
         <v>5905</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1691,13 @@
         <v>718042</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>1016</v>
@@ -1736,10 +1706,10 @@
         <v>679774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -1751,10 +1721,10 @@
         <v>1397816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>75</v>
@@ -1833,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A951109-16CF-462F-83FA-E014447E4038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F538D48E-34DE-4A08-86B9-7E2FD29D65C1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2106,7 +2076,7 @@
         <v>624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -2157,7 +2127,7 @@
         <v>82913</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>81</v>
@@ -2267,7 +2237,7 @@
         <v>85</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2276,13 +2246,13 @@
         <v>1652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2291,13 +2261,13 @@
         <v>3677</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2282,13 @@
         <v>490379</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H11" s="7">
         <v>649</v>
@@ -2327,10 +2297,10 @@
         <v>448048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -2342,13 +2312,13 @@
         <v>938426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2374,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2422,7 +2392,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2431,13 +2401,13 @@
         <v>443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2482,10 +2452,10 @@
         <v>164897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2497,10 +2467,10 @@
         <v>336458</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -2571,13 +2541,13 @@
         <v>2649</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2589,10 +2559,10 @@
         <v>40</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2604,7 +2574,7 @@
         <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>108</v>
@@ -2625,10 +2595,10 @@
         <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>1015</v>
@@ -2637,13 +2607,13 @@
         <v>704833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>2077</v>
@@ -2652,13 +2622,13 @@
         <v>1450326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2EA056-6C4F-40EF-AC70-459B54EE356B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10153023-8AD3-498D-8247-AF93684B59E5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2751,7 +2721,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3001,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3016,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3031,7 +3001,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,7 +3019,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -3064,7 +3034,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3079,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -3150,13 +3120,13 @@
         <v>4239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3165,13 +3135,13 @@
         <v>524</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3180,13 +3150,13 @@
         <v>4763</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3171,13 @@
         <v>484496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>713</v>
@@ -3216,10 +3186,10 @@
         <v>471766</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -3231,13 +3201,13 @@
         <v>956262</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3263,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3305,13 +3275,13 @@
         <v>818</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3326,7 +3296,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3335,13 +3305,13 @@
         <v>818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,10 +3326,10 @@
         <v>186677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3374,7 +3344,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3386,10 +3356,10 @@
         <v>359379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -3460,13 +3430,13 @@
         <v>5057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3475,13 +3445,13 @@
         <v>524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3490,13 +3460,13 @@
         <v>5581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3481,13 @@
         <v>739787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>1060</v>
@@ -3526,10 +3496,10 @@
         <v>703847</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -3541,13 +3511,13 @@
         <v>1443634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1010-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1010-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC762E54-F29A-4A69-8B6D-84EA0E1AC9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BE067A-54AC-418F-82E4-97FA4318E99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8BE91E1-BD9B-452D-B1BB-EA548D5C00C7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A75E691B-FBD7-490C-A2F4-1D49CCE9453F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="155">
   <si>
     <t>Menores según si padecen trastornos mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,406 +67,418 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>97,78%</t>
+    <t>97,82%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>98,63%</t>
+    <t>98,86%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -475,22 +487,22 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>98,65%</t>
+    <t>98,62%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,3%</t>
+    <t>99,24%</t>
   </si>
 </sst>
 </file>
@@ -902,8 +914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDD7D1F-4CE4-421B-918A-B07FB4A5B40E}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27233A82-D105-4D1F-8230-616E74E80579}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1020,10 +1032,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1035,81 +1047,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1343</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1984</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>90225</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="I5" s="7">
+        <v>85502</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>175728</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1118,151 +1134,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1342</v>
+        <v>605</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>642</v>
+        <v>2040</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1984</v>
+        <v>2645</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>128</v>
+        <v>627</v>
       </c>
       <c r="D8" s="7">
-        <v>85502</v>
+        <v>415482</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>135</v>
+        <v>716</v>
       </c>
       <c r="I8" s="7">
-        <v>90225</v>
+        <v>474951</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>263</v>
+        <v>1343</v>
       </c>
       <c r="N8" s="7">
-        <v>175728</v>
+        <v>890433</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1271,153 +1289,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>605</v>
+        <v>1275</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2645</v>
+        <v>1275</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>716</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>474951</v>
+        <v>174066</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>627</v>
+        <v>234</v>
       </c>
       <c r="I11" s="7">
-        <v>415482</v>
+        <v>156863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>1343</v>
+        <v>488</v>
       </c>
       <c r="N11" s="7">
-        <v>890433</v>
+        <v>330930</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1426,54 +1444,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1482,97 +1500,97 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1275</v>
+        <v>1247</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>4658</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>1275</v>
+        <v>5905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>234</v>
+        <v>1016</v>
       </c>
       <c r="D14" s="7">
-        <v>156863</v>
+        <v>679774</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>254</v>
+        <v>1078</v>
       </c>
       <c r="I14" s="7">
-        <v>174066</v>
+        <v>717316</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
-        <v>488</v>
+        <v>2094</v>
       </c>
       <c r="N14" s="7">
-        <v>330930</v>
+        <v>1397090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,216 +1599,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7">
-        <v>4658</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1247</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="7">
-        <v>9</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5905</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1079</v>
-      </c>
-      <c r="D17" s="7">
-        <v>718042</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679774</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2095</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1397816</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1803,8 +1665,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F538D48E-34DE-4A08-86B9-7E2FD29D65C1}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD2557C-DCB7-463B-8745-413F09321A93}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1820,7 +1682,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1927,90 +1789,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>624</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I5" s="7">
+        <v>82913</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>174801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,151 +1885,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>624</v>
+        <v>1652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2025</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>624</v>
+        <v>3677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>649</v>
       </c>
       <c r="D8" s="7">
-        <v>82913</v>
+        <v>448048</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>702</v>
       </c>
       <c r="I8" s="7">
-        <v>91889</v>
+        <v>490379</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="M8" s="7">
-        <v>249</v>
+        <v>1351</v>
       </c>
       <c r="N8" s="7">
-        <v>174801</v>
+        <v>938426</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,153 +2040,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2025</v>
+        <v>443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>443</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1652</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3677</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>702</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>490379</v>
+        <v>164897</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>649</v>
+        <v>243</v>
       </c>
       <c r="I11" s="7">
-        <v>448048</v>
+        <v>171561</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="7">
+        <v>476</v>
+      </c>
+      <c r="N11" s="7">
+        <v>336458</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1351</v>
-      </c>
-      <c r="N11" s="7">
-        <v>938426</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,153 +2195,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>443</v>
+        <v>2649</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>443</v>
+        <v>4744</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>243</v>
+        <v>1015</v>
       </c>
       <c r="D14" s="7">
-        <v>171561</v>
+        <v>704833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>1061</v>
       </c>
       <c r="I14" s="7">
-        <v>164897</v>
+        <v>744852</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="M14" s="7">
-        <v>476</v>
+        <v>2076</v>
       </c>
       <c r="N14" s="7">
-        <v>336458</v>
+        <v>1449685</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,216 +2350,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2649</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2095</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4744</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D17" s="7">
-        <v>745493</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704833</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2077</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1450326</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
+      <c r="A16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2704,8 +2416,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10153023-8AD3-498D-8247-AF93684B59E5}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F349790-D81C-4147-B21F-23DBCB593BD1}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2721,7 +2433,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2824,86 +2536,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59378</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68614</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N5" s="7">
+        <v>127993</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,147 +2636,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>4763</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>713</v>
       </c>
       <c r="D8" s="7">
-        <v>68614</v>
+        <v>471766</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>689</v>
       </c>
       <c r="I8" s="7">
-        <v>59378</v>
+        <v>484496</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>188</v>
+        <v>1402</v>
       </c>
       <c r="N8" s="7">
-        <v>127993</v>
+        <v>956262</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,153 +2791,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>4239</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>524</v>
+        <v>818</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>4763</v>
+        <v>818</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>689</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>484496</v>
+        <v>172703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>713</v>
+        <v>270</v>
       </c>
       <c r="I11" s="7">
-        <v>471766</v>
+        <v>186677</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>1402</v>
+        <v>528</v>
       </c>
       <c r="N11" s="7">
-        <v>956262</v>
+        <v>359379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,54 +2946,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3272,97 +3002,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>818</v>
+        <v>524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>5057</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>818</v>
+        <v>5581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>270</v>
+        <v>1060</v>
       </c>
       <c r="D14" s="7">
-        <v>186677</v>
+        <v>703847</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>1058</v>
       </c>
       <c r="I14" s="7">
-        <v>172703</v>
+        <v>739787</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>528</v>
+        <v>2118</v>
       </c>
       <c r="N14" s="7">
-        <v>359379</v>
+        <v>1443634</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,216 +3101,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5057</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>524</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5581</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1058</v>
-      </c>
-      <c r="D17" s="7">
-        <v>739787</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I17" s="7">
-        <v>703847</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1443634</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
+      <c r="A16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
